--- a/VoDinhHoang_22211TT0611_MosquitoAI_MidTerm_17052024.xlsx
+++ b/VoDinhHoang_22211TT0611_MosquitoAI_MidTerm_17052024.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK4 NÈ NHẤP VÔ ĐÂY\KTPM_2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Design" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <sheet name="Defect_9e" sheetId="12" r:id="rId7"/>
     <sheet name="images" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="415">
   <si>
     <t>STT</t>
   </si>
@@ -132,6 +127,36 @@
   </si>
   <si>
     <t>Test trường hợp tìm kiếm advanced kích thước file nhiều hơn 4096MB</t>
+  </si>
+  <si>
+    <t>TD0015  Test trường hợp tìm kiếm bằng ảnh chụp từ điện thoại</t>
+  </si>
+  <si>
+    <t>TD0016  Test trường hợp tìm kiếm bằng ảnh chụp từ camera chuyên nghiệp</t>
+  </si>
+  <si>
+    <t>TD0017  Test trường hợp tìm kiếm khi ảnh bị mờ</t>
+  </si>
+  <si>
+    <t>TD0018  Test trường hợp tìm kiếm khi ảnh bị nhiễu</t>
+  </si>
+  <si>
+    <t>TD0019  Test trường hợp tìm kiếm khi ảnh có nhiều muỗi</t>
+  </si>
+  <si>
+    <t>TD0020  Test trường hợp tìm kiếm khi ảnh chỉ có một phần của con muỗi</t>
+  </si>
+  <si>
+    <t>TD0021  Test trường hợp tìm kiếm khi ảnh có nền phức tạp</t>
+  </si>
+  <si>
+    <t>TD0022  Test trường hợp tìm kiếm khi ảnh có nền đơn giản</t>
+  </si>
+  <si>
+    <t>TD0023  Test trường hợp tìm kiếm khi ảnh có ánh sáng yếu</t>
+  </si>
+  <si>
+    <t>TD0024 Test trường hợp tìm kiếm khi ảnh có ánh sáng mạnh</t>
   </si>
   <si>
     <t>Defect ID</t>
@@ -1314,72 +1339,18 @@
   <si>
     <t>i</t>
   </si>
-  <si>
-    <t>Test trường hợp tìm kiếm bằng ảnh chụp từ điện thoại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0015  </t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm khi ảnh bị mờ</t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm khi ảnh bị nhiễu</t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm khi ảnh có nhiều muỗi</t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm khi ảnh chỉ có một phần của con muỗi</t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm khi ảnh có nền phức tạp</t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm khi ảnh có nền đơn giản</t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm khi ảnh có ánh sáng yếu</t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm khi ảnh có ánh sáng mạnh</t>
-  </si>
-  <si>
-    <t>Test trường hợp tìm kiếm bằng ảnh chụp từ camera chuyên nghiệp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0016  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0017  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0018  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0019  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0020  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0021  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0022  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD0023  </t>
-  </si>
-  <si>
-    <t>TD0024</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -1477,8 +1448,159 @@
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,8 +1631,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1546,9 +1848,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1614,14 +2158,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1648,24 +2192,68 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1679,7 +2267,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6145" name="AutoShape 1" descr="blob:https://chat.zalo.me/a7f4aea8-7f3c-4463-b418-3cf238a0dcbe"/>
         <xdr:cNvSpPr>
@@ -1721,7 +2309,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6147" name="AutoShape 3" descr="blob:https://chat.zalo.me/a7f4aea8-7f3c-4463-b418-3cf238a0dcbe"/>
         <xdr:cNvSpPr>
@@ -1763,7 +2351,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6148" name="AutoShape 4" descr="blob:https://chat.zalo.me/a7f4aea8-7f3c-4463-b418-3cf238a0dcbe"/>
         <xdr:cNvSpPr>
@@ -1805,7 +2393,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6149" name="AutoShape 5" descr="blob:https://chat.zalo.me/a7f4aea8-7f3c-4463-b418-3cf238a0dcbe"/>
         <xdr:cNvSpPr>
@@ -1847,7 +2435,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6150" name="AutoShape 6" descr="blob:https://chat.zalo.me/a7f4aea8-7f3c-4463-b418-3cf238a0dcbe"/>
         <xdr:cNvSpPr>
@@ -1889,7 +2477,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6151" name="AutoShape 7" descr="blob:https://chat.zalo.me/a7f4aea8-7f3c-4463-b418-3cf238a0dcbe"/>
         <xdr:cNvSpPr>
@@ -1931,7 +2519,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6152" name="AutoShape 8" descr="blob:https://chat.zalo.me/a7f4aea8-7f3c-4463-b418-3cf238a0dcbe"/>
         <xdr:cNvSpPr>
@@ -1973,7 +2561,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6153" name="AutoShape 9" descr="blob:https://chat.zalo.me/a7f4aea8-7f3c-4463-b418-3cf238a0dcbe"/>
         <xdr:cNvSpPr>
@@ -2023,7 +2611,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2050,7 +2638,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2072,7 +2660,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2110,7 +2698,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2148,7 +2736,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2360,27 +2948,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.219696969697" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" customWidth="1"/>
-    <col min="4" max="26" width="8.5546875" customWidth="1"/>
+    <col min="1" max="2" width="8.5530303030303" customWidth="1"/>
+    <col min="3" max="3" width="66.0909090909091" customWidth="1"/>
+    <col min="4" max="26" width="8.5530303030303" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+    <row r="1" ht="16.5" customHeight="1" spans="1:3">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+    <row r="2" ht="16.5" customHeight="1" spans="1:3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -2402,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+    <row r="3" ht="16.5" customHeight="1" spans="1:3">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -2413,7 +3000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+    <row r="4" ht="16.5" customHeight="1" spans="1:3">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -2424,7 +3011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+    <row r="5" ht="16.5" customHeight="1" spans="1:3">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -2435,7 +3022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+    <row r="6" ht="16.5" customHeight="1" spans="1:3">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -2446,7 +3033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+    <row r="7" ht="16.5" customHeight="1" spans="1:3">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -2457,7 +3044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1">
+    <row r="8" ht="16.5" customHeight="1" spans="1:3">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -2468,7 +3055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1">
+    <row r="9" ht="16.5" customHeight="1" spans="1:3">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -2479,7 +3066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1">
+    <row r="10" ht="16.5" customHeight="1" spans="1:3">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -2490,7 +3077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+    <row r="11" ht="16.5" customHeight="1" spans="1:3">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -2501,7 +3088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+    <row r="12" ht="16.5" customHeight="1" spans="1:3">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -2512,7 +3099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+    <row r="13" ht="16.5" customHeight="1" spans="1:3">
       <c r="A13" s="38">
         <v>12</v>
       </c>
@@ -2523,7 +3110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+    <row r="14" ht="16.5" customHeight="1" spans="1:3">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -2534,7 +3121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+    <row r="15" ht="16.5" customHeight="1" spans="1:3">
       <c r="A15" s="38">
         <v>14</v>
       </c>
@@ -2545,123 +3132,103 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+    <row r="16" ht="16.5" customHeight="1" spans="1:3">
       <c r="A16" s="38">
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" spans="1:3">
       <c r="A17" s="38">
         <v>16</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:3">
       <c r="A18" s="38">
         <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" spans="1:3">
       <c r="A19" s="38">
         <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" spans="1:3">
       <c r="A20" s="38">
         <v>19</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" spans="1:3">
       <c r="A21" s="38">
         <v>20</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" spans="1:3">
       <c r="A22" s="38">
         <v>21</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1" spans="1:3">
       <c r="A23" s="38">
         <v>22</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="C23" s="38"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1" spans="1:3">
       <c r="A24" s="38">
         <v>23</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1" spans="1:3">
       <c r="A25" s="38">
         <v>24</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1"/>
+        <v>40</v>
+      </c>
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -3632,135 +4199,139 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="68.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="80.109375" customWidth="1"/>
-    <col min="5" max="5" width="72.88671875" customWidth="1"/>
-    <col min="6" max="6" width="79.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="68.4393939393939" customWidth="1"/>
+    <col min="3" max="3" width="18.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="80.1060606060606" customWidth="1"/>
+    <col min="5" max="5" width="72.8863636363636" customWidth="1"/>
+    <col min="6" max="6" width="79.1060606060606" customWidth="1"/>
+    <col min="7" max="7" width="9.43939393939394" customWidth="1"/>
+    <col min="8" max="8" width="12.219696969697" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.5">
+    <row r="1" ht="34.8" spans="1:10">
       <c r="A1" s="22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J1" s="35"/>
     </row>
-    <row r="2" spans="1:10" ht="37.5">
+    <row r="2" ht="18" spans="1:10">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H2" s="25">
         <v>45429</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:10" ht="37.5">
+    <row r="3" ht="18" spans="1:10">
       <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H3" s="28">
         <v>45429</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" ht="37.5">
+    <row r="4" ht="18" spans="1:10">
       <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
@@ -3768,29 +4339,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H4" s="25">
         <v>45429</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:10" ht="37.5">
+    <row r="5" ht="18" spans="1:10">
       <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
@@ -3798,29 +4369,29 @@
         <v>12</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>45</v>
       </c>
       <c r="H5" s="25">
         <v>45429</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J5" s="34"/>
     </row>
-    <row r="6" spans="1:10" ht="37.5">
+    <row r="6" ht="18" spans="1:10">
       <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
@@ -3828,29 +4399,29 @@
         <v>14</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H6" s="25">
         <v>45429</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J6" s="34"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5">
+    <row r="7" ht="18" spans="1:10">
       <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
@@ -3858,29 +4429,29 @@
         <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H7" s="28">
         <v>45429</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75">
+    <row r="8" ht="18" spans="1:10">
       <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
@@ -3888,29 +4459,29 @@
         <v>18</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H8" s="28">
         <v>45429</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:10" ht="37.5">
+    <row r="9" ht="18" spans="1:10">
       <c r="A9" s="26" t="s">
         <v>19</v>
       </c>
@@ -3918,923 +4489,923 @@
         <v>20</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H9" s="28">
         <v>45429</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:10" ht="37.5">
+    <row r="10" ht="18" spans="1:10">
       <c r="A10" s="26" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H10" s="28">
         <v>45429</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75">
+    <row r="11" ht="18" spans="1:10">
       <c r="A11" s="26" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="28">
         <v>45429</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75">
+    <row r="12" ht="18" spans="1:10">
       <c r="A12" s="26" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H12" s="28">
         <v>45429</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="1:10" ht="37.5">
+    <row r="13" ht="18" spans="1:10">
       <c r="A13" s="26" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H13" s="28">
         <v>45429</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:10" ht="37.5">
+    <row r="14" ht="18" spans="1:10">
       <c r="A14" s="26" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H14" s="28">
         <v>45429</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="1:10" ht="37.5">
+    <row r="15" ht="18" spans="1:10">
       <c r="A15" s="26" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H15" s="28">
         <v>45429</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75">
+    <row r="16" ht="18" spans="1:10">
       <c r="A16" s="26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H16" s="28">
         <v>45429</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75">
+    <row r="17" ht="18" spans="1:10">
       <c r="A17" s="26" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>97</v>
-      </c>
       <c r="D17" s="26" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H17" s="28">
         <v>45429</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75">
+    <row r="18" ht="18" spans="1:10">
       <c r="A18" s="26" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H18" s="28">
         <v>45429</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75">
+    <row r="19" ht="18" spans="1:10">
       <c r="A19" s="26" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H19" s="28">
         <v>45429</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:10" ht="37.5">
+    <row r="20" ht="18" spans="1:10">
       <c r="A20" s="30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H20" s="28">
         <v>45429</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:10" ht="37.5">
+    <row r="21" ht="18" spans="1:10">
       <c r="A21" s="30" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H21" s="28">
         <v>45429</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:10" ht="37.5">
+    <row r="22" ht="18" spans="1:10">
       <c r="A22" s="30" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H22" s="28">
         <v>45429</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:10" ht="37.5">
+    <row r="23" ht="18" spans="1:10">
       <c r="A23" s="30" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H23" s="28">
         <v>45429</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:10" ht="37.5">
+    <row r="24" ht="18" spans="1:10">
       <c r="A24" s="30" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H24" s="28">
         <v>45429</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="1:10" ht="37.5">
+    <row r="25" ht="18" spans="1:10">
       <c r="A25" s="30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H25" s="28">
         <v>45429</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="1:10" ht="37.5">
+    <row r="26" ht="18" spans="1:10">
       <c r="A26" s="30" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H26" s="28">
         <v>45429</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:10" ht="37.5">
+    <row r="27" ht="18" spans="1:10">
       <c r="A27" s="30" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H27" s="28">
         <v>45429</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75">
+    <row r="28" ht="18" spans="1:10">
       <c r="A28" s="30" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H28" s="28">
         <v>45429</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J28" s="34"/>
     </row>
-    <row r="29" spans="1:10" ht="37.5">
+    <row r="29" ht="18" spans="1:10">
       <c r="A29" s="30" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H29" s="28">
         <v>45429</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J29" s="34"/>
     </row>
-    <row r="30" spans="1:10" ht="37.5">
+    <row r="30" ht="18" spans="1:10">
       <c r="A30" s="30" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>97</v>
-      </c>
       <c r="D30" s="31" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H30" s="28">
         <v>45429</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J30" s="34"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75">
+    <row r="31" ht="18" spans="1:10">
       <c r="A31" s="30" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H31" s="28">
         <v>45429</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J31" s="34"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75">
+    <row r="32" ht="18" spans="1:10">
       <c r="A32" s="30" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H32" s="28">
         <v>45429</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J32" s="34"/>
     </row>
-    <row r="33" spans="1:10" ht="37.5">
+    <row r="33" ht="18" spans="1:10">
       <c r="A33" s="30" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H33" s="28">
         <v>45429</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J33" s="34"/>
     </row>
-    <row r="34" spans="1:10" ht="37.5">
+    <row r="34" ht="18" spans="1:10">
       <c r="A34" s="30" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H34" s="28">
         <v>45429</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J34" s="34"/>
     </row>
-    <row r="35" spans="1:10" ht="37.5">
+    <row r="35" ht="18" spans="1:10">
       <c r="A35" s="30" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H35" s="28">
         <v>45429</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J35" s="34"/>
     </row>
-    <row r="36" spans="1:10" ht="18.75">
+    <row r="36" ht="18" spans="1:10">
       <c r="A36" s="30" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H36" s="28">
         <v>45429</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J36" s="34"/>
     </row>
-    <row r="37" spans="1:10" ht="18.75">
+    <row r="37" ht="18" spans="1:10">
       <c r="A37" s="30" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H37" s="28">
         <v>45429</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J37" s="34"/>
     </row>
-    <row r="38" spans="1:10" ht="18.75">
+    <row r="38" ht="18" spans="1:10">
       <c r="A38" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>173</v>
-      </c>
       <c r="C38" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H38" s="28">
         <v>45429</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J38" s="34"/>
     </row>
-    <row r="39" spans="1:10" ht="18.75">
+    <row r="39" ht="18" spans="1:10">
       <c r="A39" s="30" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H39" s="28">
         <v>45429</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J39" s="34"/>
     </row>
@@ -5200,1655 +5771,1666 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="67.219696969697" customWidth="1"/>
+    <col min="4" max="4" width="50.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" ht="18" spans="1:4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:4">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:4">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:4">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:4">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:4">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:4">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:4">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:4">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:4">
       <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="1:4">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:4">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:4">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:4">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:4">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:4">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:4">
       <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:4">
       <c r="A18" s="20">
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:4">
       <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:4">
       <c r="A20" s="20">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="1:4">
       <c r="A21" s="20">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="100.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" customWidth="1"/>
-    <col min="5" max="6" width="72.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="100.727272727273" customWidth="1"/>
+    <col min="3" max="3" width="15.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="49.8863636363636" customWidth="1"/>
+    <col min="5" max="6" width="72.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="17" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="81">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="101.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" ht="105" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="101.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" ht="105" spans="1:6">
       <c r="A4" s="15" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="101.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" ht="105" spans="1:6">
       <c r="A5" s="15" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="101.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" ht="105" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="101.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" ht="105" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="81">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" ht="105" spans="1:6">
       <c r="A8" s="15" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="1:6">
       <c r="A11" s="15" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60.75">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" ht="63" spans="1:6">
       <c r="A12" s="15" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60.75">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" ht="63" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60.75">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" ht="63" spans="1:6">
       <c r="A14" s="15" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60.75">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" ht="63" spans="1:6">
       <c r="A15" s="15" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60.75">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" ht="63" spans="1:6">
       <c r="A16" s="15" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60.75">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" ht="63" spans="1:6">
       <c r="A17" s="15" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60.75">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" ht="63" spans="1:6">
       <c r="A18" s="15" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60.75">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" ht="63" spans="1:6">
       <c r="A19" s="15" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60.75">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" ht="63" spans="1:6">
       <c r="A20" s="15" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60.75">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" ht="63" spans="1:6">
       <c r="A21" s="15" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.77734375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="77.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="98.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="165.44140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.3636363636364" style="11" customWidth="1"/>
+    <col min="2" max="2" width="98.7272727272727" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.0909090909091" style="11" customWidth="1"/>
+    <col min="4" max="4" width="68.8181818181818" style="11" customWidth="1"/>
+    <col min="5" max="5" width="98.9090909090909" style="11" customWidth="1"/>
+    <col min="6" max="6" width="165.454545454545" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="12" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="45" customHeight="1" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" ht="63" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" ht="63" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" ht="63" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" ht="63" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" ht="63" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" ht="84" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" ht="42" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" ht="42" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" ht="42" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" ht="42" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F19" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" ht="63" spans="1:6">
+      <c r="A20" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="60.75">
-      <c r="A3" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="C20" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F20" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" ht="42" spans="1:6">
+      <c r="A21" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="60.75">
-      <c r="A4" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C21" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="E21" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60.75">
-      <c r="A5" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60.75">
-      <c r="A6" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60.75">
-      <c r="A7" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="81">
-      <c r="A8" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5">
-      <c r="A9" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5">
-      <c r="A10" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.5">
-      <c r="A11" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="40.5">
-      <c r="A12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.5">
-      <c r="A13" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="40.5">
-      <c r="A14" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40.5">
-      <c r="A15" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="40.5">
-      <c r="A16" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5">
-      <c r="A17" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5">
-      <c r="A18" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.5">
-      <c r="A19" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.5">
-      <c r="A20" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="40.5">
-      <c r="A21" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>336</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="100.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
-    <col min="5" max="5" width="128.33203125" customWidth="1"/>
-    <col min="6" max="6" width="72.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="100.181818181818" customWidth="1"/>
+    <col min="3" max="3" width="30.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="82.3106060606061" customWidth="1"/>
+    <col min="5" max="5" width="128.363636363636" customWidth="1"/>
+    <col min="6" max="6" width="72.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" ht="42" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" ht="42" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" ht="42" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.5">
-      <c r="A4" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.5">
-      <c r="A5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.5">
-      <c r="A6" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" ht="42" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="40.5">
-      <c r="A7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.5">
-      <c r="A8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" ht="42" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:6">
+      <c r="A14" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" ht="42" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5">
-      <c r="A9" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5">
-      <c r="A10" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.5">
-      <c r="A11" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="40.5">
-      <c r="A12" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.5">
-      <c r="A13" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="40.5">
-      <c r="A14" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="40.5">
-      <c r="A15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="40.5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" ht="42" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" ht="42" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
       <c r="E24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>